--- a/_RQ2/RQ2_all_data.xlsx
+++ b/_RQ2/RQ2_all_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\74503\Desktop\Version Upgrades\Tool_Results\RQ3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gcf\Research\Version Upgrades\Tool_Results\RQ3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066556D4-825F-43A7-A2CD-5975DD1B79C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC992FFB-3827-443B-A2CE-54B746DD287B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13272" yWindow="0" windowWidth="21144" windowHeight="9600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REN" sheetId="1" r:id="rId1"/>
@@ -18,19 +18,29 @@
     <sheet name="TXO" sheetId="3" r:id="rId3"/>
     <sheet name="UEW" sheetId="4" r:id="rId4"/>
     <sheet name="IOU" sheetId="5" r:id="rId5"/>
-    <sheet name="SUM" sheetId="6" r:id="rId6"/>
+    <sheet name="SUM_backup" sheetId="6" r:id="rId6"/>
+    <sheet name="SUM" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="44">
   <si>
     <t>Version</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -195,6 +205,14 @@
     <t>σ</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Weighted Total</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proportion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -276,9 +294,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -295,13 +313,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -367,6 +384,1261 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>SUM_backup!$L$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>REN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct40">
+              <a:fgClr>
+                <a:srgbClr val="5B9BD5"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>SUM_backup!$N$1:$W$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Ethainter</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MadMax</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mythril</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Semgrep</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Slither</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SmartCheck</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Solhint</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SolidityCheck</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Vandal</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>VeriSmart</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SUM_backup!$N$2:$W$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="2">
+                  <c:v>6.8965517241379309E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9171597633136092E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.8039215686274508E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1242603550295858</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-75B3-4A7E-8967-72FC8CA225D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SUM_backup!$L$3:$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>REN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>σ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct90">
+              <a:fgClr>
+                <a:srgbClr val="5B9BD5"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>SUM_backup!$N$1:$W$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Ethainter</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MadMax</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mythril</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Semgrep</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Slither</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SmartCheck</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Solhint</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SolidityCheck</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Vandal</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>VeriSmart</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SUM_backup!$N$3:$W$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="2">
+                  <c:v>2.9801736688458633E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22929014537213871</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3672973677235559E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3494301831737549E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0904954444811997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-75B3-4A7E-8967-72FC8CA225D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SUM_backup!$L$4:$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>USI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltDnDiag">
+              <a:fgClr>
+                <a:srgbClr val="ED7D31"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>SUM_backup!$N$1:$W$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Ethainter</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MadMax</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mythril</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Semgrep</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Slither</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SmartCheck</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Solhint</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SolidityCheck</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Vandal</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>VeriSmart</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SUM_backup!$N$4:$W$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.0303030303030304E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.737704918032787E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15384615384615385</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0362694300518135E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5842293906810034E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-75B3-4A7E-8967-72FC8CA225D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SUM_backup!$L$5:$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>USI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>σ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dkDnDiag">
+              <a:fgClr>
+                <a:srgbClr val="ED7D31"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>SUM_backup!$N$1:$W$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Ethainter</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MadMax</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mythril</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Semgrep</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Slither</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SmartCheck</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Solhint</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SolidityCheck</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Vandal</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>VeriSmart</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SUM_backup!$N$5:$W$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.7570609571957035E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3445024071984917E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54772255750516607</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12103391690894966</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5971914124998498E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2473585881759354E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-75B3-4A7E-8967-72FC8CA225D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SUM_backup!$L$6:$M$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>TXO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltHorz">
+              <a:fgClr>
+                <a:srgbClr val="A5A5A5"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>SUM_backup!$N$1:$W$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Ethainter</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MadMax</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mythril</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Semgrep</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Slither</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SmartCheck</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Solhint</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SolidityCheck</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Vandal</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>VeriSmart</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SUM_backup!$N$6:$W$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="2">
+                  <c:v>4.0816326530612242E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2140221402214022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10357142857142858</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9508196721311476E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8275862068965517E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1578947368421054E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-75B3-4A7E-8967-72FC8CA225D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SUM_backup!$L$7:$M$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>TXO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>σ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dkHorz">
+              <a:fgClr>
+                <a:srgbClr val="A5A5A5"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>SUM_backup!$N$1:$W$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Ethainter</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MadMax</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mythril</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Semgrep</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Slither</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SmartCheck</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Solhint</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SolidityCheck</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Vandal</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>VeriSmart</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SUM_backup!$N$7:$W$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="2">
+                  <c:v>2.3585260633387509E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29049651597521409</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11091809013453259</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5291488234786208E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6150134145767281E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.008460800397098E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-75B3-4A7E-8967-72FC8CA225D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SUM_backup!$L$8:$M$8</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>UEW</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="smGrid">
+              <a:fgClr>
+                <a:srgbClr val="FFC000"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>SUM_backup!$N$1:$W$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Ethainter</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MadMax</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mythril</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Semgrep</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Slither</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SmartCheck</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Solhint</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SolidityCheck</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Vandal</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>VeriSmart</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SUM_backup!$N$8:$W$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.6776859504132234E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.7192982456140355E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.476635514018691E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6728971962616821E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5290519877675841E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-75B3-4A7E-8967-72FC8CA225D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SUM_backup!$L$9:$M$9</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>UEW</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>σ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="trellis">
+              <a:fgClr>
+                <a:srgbClr val="FFC000"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>SUM_backup!$N$1:$W$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Ethainter</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MadMax</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mythril</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Semgrep</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Slither</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SmartCheck</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Solhint</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SolidityCheck</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Vandal</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>VeriSmart</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SUM_backup!$N$9:$W$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.9644678061339407E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2265500624231383E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6125066776796493E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0094753553603916E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6108447287490103E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-75B3-4A7E-8967-72FC8CA225D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SUM_backup!$L$10:$M$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>IOU</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="smCheck">
+              <a:fgClr>
+                <a:srgbClr val="70AD47"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>SUM_backup!$N$1:$W$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Ethainter</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MadMax</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mythril</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Semgrep</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Slither</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SmartCheck</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Solhint</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SolidityCheck</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Vandal</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>VeriSmart</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SUM_backup!$N$10:$W$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>0.21428571428571427</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30278884462151395</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22994652406417113</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18518518518518517</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14497041420118342</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-75B3-4A7E-8967-72FC8CA225D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SUM_backup!$L$11:$M$11</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>IOU</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>σ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="trellis">
+              <a:fgClr>
+                <a:srgbClr val="70AD47"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>SUM_backup!$N$1:$W$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Ethainter</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MadMax</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mythril</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Semgrep</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Slither</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SmartCheck</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Solhint</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SolidityCheck</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Vandal</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>VeriSmart</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SUM_backup!$N$11:$W$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>0.11470636205519538</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18943080608324731</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.43033933999286561</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.2817332499992208E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.5103909914782214E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-75B3-4A7E-8967-72FC8CA225D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="366450687"/>
+        <c:axId val="912922991"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="366450687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="912922991"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="10"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="912922991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.31000000000000005"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="366450687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.1914753290088604E-2"/>
+          <c:y val="0.88726020945713036"/>
+          <c:w val="0.85617049341982276"/>
+          <c:h val="9.3277454662414688E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.4850292789845596E-2"/>
+          <c:y val="6.0802655992325892E-2"/>
+          <c:w val="0.91474730226754397"/>
+          <c:h val="0.70663610720243808"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>SUM!$L$2:$M$2</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
@@ -438,27 +1710,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="2">
-                  <c:v>6.8965517241379309E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.15625</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.9171597633136092E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.8039215686274508E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1242603550295858</c:v>
+                <c:pt idx="2" formatCode="0.00%">
+                  <c:v>5.1488647505070068E-2</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00%">
+                  <c:v>0.38579399293735162</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00%">
+                  <c:v>4.0073421561396677E-2</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00%">
+                  <c:v>2.2421943563050918E-2</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00%">
+                  <c:v>0.17434322095028068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-75B3-4A7E-8967-72FC8CA225D2}"/>
+              <c16:uniqueId val="{00000000-9B27-4428-AE42-F241A98FCE17}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -558,7 +1830,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-75B3-4A7E-8967-72FC8CA225D2}"/>
+              <c16:uniqueId val="{00000001-9B27-4428-AE42-F241A98FCE17}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -638,30 +1910,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>3.0303030303030304E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.737704918032787E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.15384615384615385</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0362694300518135E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.5842293906810034E-2</c:v>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>3.8417216405411E-2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00%">
+                  <c:v>5.6651127519358906E-2</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00%">
+                  <c:v>0.83356807511737097</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00%">
+                  <c:v>0.22391531440578338</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00%">
+                  <c:v>2.5227210721958871E-2</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00%">
+                  <c:v>5.3186538673588038E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-75B3-4A7E-8967-72FC8CA225D2}"/>
+              <c16:uniqueId val="{00000002-9B27-4428-AE42-F241A98FCE17}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -764,7 +2036,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-75B3-4A7E-8967-72FC8CA225D2}"/>
+              <c16:uniqueId val="{00000003-9B27-4428-AE42-F241A98FCE17}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -844,30 +2116,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="2">
-                  <c:v>4.0816326530612242E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.2140221402214022</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.10357142857142858</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.9508196721311476E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.8275862068965517E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.1578947368421054E-2</c:v>
+                <c:pt idx="2" formatCode="0.00%">
+                  <c:v>3.4963266429995921E-2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00%">
+                  <c:v>0.1412761193069054</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00%">
+                  <c:v>8.1298528027684031E-2</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00%">
+                  <c:v>1.9570510864524542E-2</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00%">
+                  <c:v>2.6328382019899017E-2</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00%">
+                  <c:v>2.1405822858858121E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-75B3-4A7E-8967-72FC8CA225D2}"/>
+              <c16:uniqueId val="{00000004-9B27-4428-AE42-F241A98FCE17}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -970,7 +2242,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-75B3-4A7E-8967-72FC8CA225D2}"/>
+              <c16:uniqueId val="{00000005-9B27-4428-AE42-F241A98FCE17}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1050,30 +2322,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>8.6776859504132234E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.7192982456140355E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>5.8577547733890775E-2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00%">
+                  <c:v>8.4883948825272879E-2</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00%">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.476635514018691E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.6728971962616821E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.5290519877675841E-2</c:v>
+                <c:pt idx="4" formatCode="0.00%">
+                  <c:v>2.1141997165428812E-2</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00%">
+                  <c:v>4.8008318491198632E-2</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00%">
+                  <c:v>3.9256874431630425E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-75B3-4A7E-8967-72FC8CA225D2}"/>
+              <c16:uniqueId val="{00000006-9B27-4428-AE42-F241A98FCE17}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1176,7 +2448,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-75B3-4A7E-8967-72FC8CA225D2}"/>
+              <c16:uniqueId val="{00000007-9B27-4428-AE42-F241A98FCE17}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1254,29 +2526,29 @@
             <c:numRef>
               <c:f>SUM!$N$10:$W$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="1">
-                  <c:v>0.21428571428571427</c:v>
+                  <c:v>9.0181168216086002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.30278884462151395</c:v>
+                  <c:v>8.8704217820210901E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22994652406417113</c:v>
+                  <c:v>9.2242131755629717E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.18518518518518517</c:v>
+                  <c:v>2.355669905602268E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.14497041420118342</c:v>
+                  <c:v>6.5142006535924432E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-75B3-4A7E-8967-72FC8CA225D2}"/>
+              <c16:uniqueId val="{00000008-9B27-4428-AE42-F241A98FCE17}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1376,7 +2648,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-75B3-4A7E-8967-72FC8CA225D2}"/>
+              <c16:uniqueId val="{00000009-9B27-4428-AE42-F241A98FCE17}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1626,7 +2898,550 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2648,6 +4463,797 @@
 </c:userShapes>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>13711</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>17202</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>850072</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>148068</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A6D512E-CDF9-4C2C-AECE-E50E6C2CD960}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.36017</cdr:x>
+      <cdr:y>0.12579</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.36906</cdr:x>
+      <cdr:y>0.16271</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="平行四边形 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4C2FC32-980E-44D6-9AC3-07F2C9AA3BDC}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="5400000" flipV="1">
+          <a:off x="2467673" y="239615"/>
+          <a:ext cx="69135" cy="61009"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="parallelogram">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.34051</cdr:x>
+      <cdr:y>0.00155</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.36342</cdr:x>
+      <cdr:y>0.04935</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="17" name="文本框 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31FD7320-5EF4-427A-DCA2-AEAB41838199}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2336800" y="2902"/>
+          <a:ext cx="157225" cy="89509"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="500" b="1">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>39%</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" b="1">
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.36817</cdr:x>
+      <cdr:y>0.13813</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.37705</cdr:x>
+      <cdr:y>0.17505</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="平行四边形 4">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A672F492-87BD-4483-BB38-BE7F8ABCE1AF}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="5400000" flipV="1">
+          <a:off x="2522540" y="262761"/>
+          <a:ext cx="69136" cy="60940"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="parallelogram">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.41443</cdr:x>
+      <cdr:y>0.13725</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.42331</cdr:x>
+      <cdr:y>0.17417</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="平行四边形 5">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CAD7C44-BECA-4988-92F5-85ED9F2C57CF}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="5400000" flipV="1">
+          <a:off x="2840016" y="261104"/>
+          <a:ext cx="69136" cy="60941"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="parallelogram">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.35802</cdr:x>
+      <cdr:y>0.00233</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.38093</cdr:x>
+      <cdr:y>0.05012</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="7" name="文本框 6">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{223A4693-5FA1-4216-997D-0C933532B830}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2456956" y="4354"/>
+          <a:ext cx="157224" cy="89509"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="500" b="1">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>83%</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" b="1">
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.37612</cdr:x>
+      <cdr:y>0.00233</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.39903</cdr:x>
+      <cdr:y>0.05012</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="8" name="文本框 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{154FA92B-1E44-4DFF-9B45-D70513286887}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2581168" y="4354"/>
+          <a:ext cx="157224" cy="89509"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="500" b="1">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>55%</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" b="1">
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.41369</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.4366</cdr:x>
+      <cdr:y>0.0478</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="9" name="文本框 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CC78813-614B-4820-8C35-E788C6022EA8}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2839027" y="0"/>
+          <a:ext cx="157225" cy="89509"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="500" b="1">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>43%</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500" b="1">
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.34495</cdr:x>
+      <cdr:y>0.15037</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.35383</cdr:x>
+      <cdr:y>0.18729</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="16" name="平行四边形 15">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADC8EA04-6F0B-4926-46FA-AAA3764BF67E}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="5400000" flipV="1">
+          <a:off x="2363184" y="285675"/>
+          <a:ext cx="69136" cy="60941"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="parallelogram">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2911,10 +5517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2923,6 +5529,7 @@
     <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="27.6" x14ac:dyDescent="0.25">
@@ -3747,6 +6354,56 @@
       <c r="V19" s="9">
         <f t="shared" si="4"/>
         <v>6.0904954444811997E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="Q21" t="s">
+        <v>43</v>
+      </c>
+      <c r="R21" s="12">
+        <f>$A2/$A$7</f>
+        <v>0.12720617490252248</v>
+      </c>
+      <c r="S21" s="12">
+        <f>$A3/$A$7</f>
+        <v>4.3542611601814274E-2</v>
+      </c>
+      <c r="T21" s="12">
+        <f>$A4/$A$7</f>
+        <v>8.2863849765258221E-2</v>
+      </c>
+      <c r="U21" s="12">
+        <f>$A5/$A$7</f>
+        <v>4.0025463515556615E-2</v>
+      </c>
+      <c r="V21" s="12">
+        <f>$A6/$A$7</f>
+        <v>0.70636190021484846</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="Q22" t="s">
+        <v>42</v>
+      </c>
+      <c r="R22" s="12">
+        <f>R13*$R21+R14*$S21+R15*$T21+R16*$U21+R17*$V21</f>
+        <v>5.1488647505070068E-2</v>
+      </c>
+      <c r="S22" s="12">
+        <f>S13*$R21+S14*$S21+S15*$T21+S16*$U21+S17*$V21</f>
+        <v>0.38579399293735162</v>
+      </c>
+      <c r="T22" s="12">
+        <f>T13*$R21+T14*$S21+T15*$T21+T16*$U21+T17*$V21</f>
+        <v>4.0073421561396677E-2</v>
+      </c>
+      <c r="U22" s="12">
+        <f>U13*$R21+U14*$S21+U15*$T21+U16*$U21+U17*$V21</f>
+        <v>2.2421943563050918E-2</v>
+      </c>
+      <c r="V22" s="12">
+        <f>V13*$R21+V14*$S21+V15*$T21+V16*$U21+V17*$V21</f>
+        <v>0.17434322095028068</v>
       </c>
     </row>
   </sheetData>
@@ -3758,10 +6415,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A37184-0D8B-463D-8377-E52E916A756A}">
-  <dimension ref="C1:Y19"/>
+  <dimension ref="C1:Y23"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3770,6 +6427,7 @@
     <col min="6" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" customWidth="1"/>
     <col min="17" max="17" width="10.109375" customWidth="1"/>
+    <col min="20" max="20" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7.44140625" customWidth="1"/>
     <col min="25" max="25" width="11" customWidth="1"/>
   </cols>
@@ -4248,8 +6906,8 @@
       </c>
     </row>
     <row r="9" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
     </row>
     <row r="12" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
@@ -4682,6 +7340,35 @@
       <c r="Y19" s="9">
         <f t="shared" si="7"/>
         <v>2.2473585881759354E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="S23" t="s">
+        <v>42</v>
+      </c>
+      <c r="T23" s="12">
+        <f>T13*REN!$R$21+USI!T14*REN!$S$21+T15*REN!$T$21+T16*REN!$U$21+T17*REN!$V$21</f>
+        <v>3.8417216405411E-2</v>
+      </c>
+      <c r="U23" s="12">
+        <f>U13*REN!$R$21+U14*REN!$S$21+U15*REN!$T$21+U16*REN!$U$21+U17*REN!$V$21</f>
+        <v>5.6651127519358906E-2</v>
+      </c>
+      <c r="V23" s="12">
+        <f>V13*REN!$R$21+V14*REN!$S$21+V15*REN!$T$21+V16*REN!$U$21+V17*REN!$V$21</f>
+        <v>0.83356807511737097</v>
+      </c>
+      <c r="W23" s="12">
+        <f>W13*REN!$R$21+W14*REN!$S$21+W15*REN!$T$21+W16*REN!$U$21+W17*REN!$V$21</f>
+        <v>0.22391531440578338</v>
+      </c>
+      <c r="X23" s="12">
+        <f>X13*REN!$R$21+X14*REN!$S$21+X15*REN!$T$21+X16*REN!$U$21+X17*REN!$V$21</f>
+        <v>2.5227210721958871E-2</v>
+      </c>
+      <c r="Y23" s="12">
+        <f>Y13*REN!$R$21+Y14*REN!$S$21+Y15*REN!$T$21+Y16*REN!$U$21+Y17*REN!$V$21</f>
+        <v>5.3186538673588038E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4693,10 +7380,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C3A4821-CA7A-4B47-8623-B303DF84998D}">
-  <dimension ref="C1:Y19"/>
+  <dimension ref="C1:Y22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:I7"/>
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5623,6 +8310,35 @@
         <v>2.008460800397098E-2</v>
       </c>
     </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="S22" t="s">
+        <v>42</v>
+      </c>
+      <c r="T22" s="12">
+        <f>T13*REN!$R$21+T14*REN!$S$21+T15*REN!$T$21+T16*REN!$U$21+T17*REN!$V$21</f>
+        <v>3.4963266429995921E-2</v>
+      </c>
+      <c r="U22" s="12">
+        <f>U13*REN!$R$21+U14*REN!$S$21+U15*REN!$T$21+U16*REN!$U$21+U17*REN!$V$21</f>
+        <v>0.1412761193069054</v>
+      </c>
+      <c r="V22" s="12">
+        <f>V13*REN!$R$21+V14*REN!$S$21+V15*REN!$T$21+V16*REN!$U$21+V17*REN!$V$21</f>
+        <v>8.1298528027684031E-2</v>
+      </c>
+      <c r="W22" s="12">
+        <f>W13*REN!$R$21+W14*REN!$S$21+W15*REN!$T$21+W16*REN!$U$21+W17*REN!$V$21</f>
+        <v>1.9570510864524542E-2</v>
+      </c>
+      <c r="X22" s="12">
+        <f>X13*REN!$R$21+X14*REN!$S$21+X15*REN!$T$21+X16*REN!$U$21+X17*REN!$V$21</f>
+        <v>2.6328382019899017E-2</v>
+      </c>
+      <c r="Y22" s="12">
+        <f>Y13*REN!$R$21+Y14*REN!$S$21+Y15*REN!$T$21+Y16*REN!$U$21+Y17*REN!$V$21</f>
+        <v>2.1405822858858121E-2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5631,10 +8347,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A33CB6-7C7F-4420-9AFD-D924E8093353}">
-  <dimension ref="C1:Y19"/>
+  <dimension ref="C1:Y22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T7" sqref="T7:Y7"/>
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6561,6 +9277,35 @@
         <v>1.6108447287490103E-2</v>
       </c>
     </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="S22" t="s">
+        <v>42</v>
+      </c>
+      <c r="T22" s="12">
+        <f>T13*REN!$R$21+T14*REN!$S$21+T15*REN!$T$21+T16*REN!$U$21+T17*REN!$V$21</f>
+        <v>5.8577547733890775E-2</v>
+      </c>
+      <c r="U22" s="12">
+        <f>U13*REN!$R$21+U14*REN!$S$21+U15*REN!$T$21+U16*REN!$U$21+U17*REN!$V$21</f>
+        <v>8.4883948825272879E-2</v>
+      </c>
+      <c r="V22" s="12">
+        <f>V13*REN!$R$21+V14*REN!$S$21+V15*REN!$T$21+V16*REN!$U$21+V17*REN!$V$21</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="12">
+        <f>W13*REN!$R$21+W14*REN!$S$21+W15*REN!$T$21+W16*REN!$U$21+W17*REN!$V$21</f>
+        <v>2.1141997165428812E-2</v>
+      </c>
+      <c r="X22" s="12">
+        <f>X13*REN!$R$21+X14*REN!$S$21+X15*REN!$T$21+X16*REN!$U$21+X17*REN!$V$21</f>
+        <v>4.8008318491198632E-2</v>
+      </c>
+      <c r="Y22" s="12">
+        <f>Y13*REN!$R$21+Y14*REN!$S$21+Y15*REN!$T$21+Y16*REN!$U$21+Y17*REN!$V$21</f>
+        <v>3.9256874431630425E-3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6570,10 +9315,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38FCF066-AF14-4928-B8BA-00FFB9CE0876}">
-  <dimension ref="C1:V19"/>
+  <dimension ref="C1:V22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R7" sqref="R7:V7"/>
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7371,6 +10116,31 @@
         <v>8.5103909914782214E-2</v>
       </c>
     </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Q22" t="s">
+        <v>42</v>
+      </c>
+      <c r="R22" s="12">
+        <f>R13*REN!$R$21+R14*REN!$S$21+R15*REN!$T$21+R16*REN!$U$21+R17*REN!$V$21</f>
+        <v>9.0181168216086002E-2</v>
+      </c>
+      <c r="S22" s="12">
+        <f>S13*REN!$R$21+S14*REN!$S$21+S15*REN!$T$21+S16*REN!$U$21+S17*REN!$V$21</f>
+        <v>8.8704217820210901E-2</v>
+      </c>
+      <c r="T22" s="12">
+        <f>T13*REN!$R$21+T14*REN!$S$21+T15*REN!$T$21+T16*REN!$U$21+T17*REN!$V$21</f>
+        <v>9.2242131755629717E-2</v>
+      </c>
+      <c r="U22" s="12">
+        <f>U13*REN!$R$21+U14*REN!$S$21+U15*REN!$T$21+U16*REN!$U$21+U17*REN!$V$21</f>
+        <v>2.355669905602268E-2</v>
+      </c>
+      <c r="V22" s="12">
+        <f>V13*REN!$R$21+V14*REN!$S$21+V15*REN!$T$21+V16*REN!$U$21+V17*REN!$V$21</f>
+        <v>6.5142006535924432E-2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7382,8 +10152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEF472C-68CD-4BAD-91DC-D01F08E1F29E}">
   <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView topLeftCell="H4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15:U25"/>
+    <sheetView topLeftCell="H1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7425,8 +10195,6 @@
       <c r="H1" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
@@ -7479,32 +10247,27 @@
       <c r="H2" s="11">
         <v>1.8700000000000001E-2</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13">
+      <c r="P2">
         <v>6.8965517241379309E-2</v>
       </c>
-      <c r="Q2" s="13">
+      <c r="Q2">
         <v>0.15625</v>
       </c>
-      <c r="R2" s="13">
+      <c r="R2">
         <v>5.9171597633136092E-2</v>
       </c>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13">
+      <c r="T2">
         <v>9.8039215686274508E-3</v>
       </c>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13">
+      <c r="V2">
         <v>0.1242603550295858</v>
       </c>
-      <c r="W2" s="13"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
@@ -7519,32 +10282,27 @@
       <c r="H3" s="11">
         <v>2.4299999999999999E-2</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13">
+      <c r="P3">
         <v>2.9801736688458633E-2</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="Q3">
         <v>0.22929014537213871</v>
       </c>
-      <c r="R3" s="13">
+      <c r="R3">
         <v>2.3672973677235559E-2</v>
       </c>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13">
+      <c r="T3">
         <v>1.3494301831737549E-2</v>
       </c>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13">
+      <c r="V3">
         <v>6.0904954444811997E-2</v>
       </c>
-      <c r="W3" s="13"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
@@ -7559,32 +10317,28 @@
       <c r="H4" s="11">
         <v>5.0299999999999997E-2</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4">
         <v>3.0303030303030304E-2</v>
       </c>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13">
+      <c r="P4">
         <v>5.737704918032787E-2</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="Q4">
         <v>1</v>
       </c>
-      <c r="R4" s="13">
+      <c r="R4">
         <v>0.15384615384615385</v>
       </c>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13">
+      <c r="V4">
         <v>1.0362694300518135E-2</v>
       </c>
-      <c r="W4" s="13">
+      <c r="W4">
         <v>3.5842293906810034E-2</v>
       </c>
     </row>
@@ -7601,32 +10355,28 @@
       <c r="H5" s="11">
         <v>4.7E-2</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5">
         <v>3.7570609571957035E-2</v>
       </c>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13">
+      <c r="P5">
         <v>4.3445024071984917E-2</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="Q5">
         <v>0.54772255750516607</v>
       </c>
-      <c r="R5" s="13">
+      <c r="R5">
         <v>0.12103391690894966</v>
       </c>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13">
+      <c r="V5">
         <v>1.5971914124998498E-2</v>
       </c>
-      <c r="W5" s="13">
+      <c r="W5">
         <v>2.2473585881759354E-2</v>
       </c>
     </row>
@@ -7643,181 +10393,588 @@
       <c r="H6" s="11">
         <v>0.1085</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="M6" t="s">
         <v>40</v>
       </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13">
+      <c r="P6">
         <v>4.0816326530612242E-2</v>
       </c>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13">
+      <c r="R6">
         <v>0.2140221402214022</v>
       </c>
-      <c r="S6" s="13">
+      <c r="S6">
         <v>0.10357142857142858</v>
       </c>
-      <c r="T6" s="13">
+      <c r="T6">
         <v>2.9508196721311476E-2</v>
       </c>
-      <c r="U6" s="13">
+      <c r="U6">
         <v>4.8275862068965517E-2</v>
       </c>
-      <c r="V6" s="13">
+      <c r="V6">
         <v>3.1578947368421054E-2</v>
       </c>
-      <c r="W6" s="13"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H7" s="12">
         <v>8.6099999999999996E-2</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="M7" t="s">
         <v>41</v>
       </c>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13">
+      <c r="P7">
         <v>2.3585260633387509E-2</v>
       </c>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13">
+      <c r="R7">
         <v>0.29049651597521409</v>
       </c>
-      <c r="S7" s="13">
+      <c r="S7">
         <v>0.11091809013453259</v>
       </c>
-      <c r="T7" s="13">
+      <c r="T7">
         <v>1.5291488234786208E-2</v>
       </c>
-      <c r="U7" s="13">
+      <c r="U7">
         <v>7.6150134145767281E-2</v>
       </c>
-      <c r="V7" s="13">
+      <c r="V7">
         <v>2.008460800397098E-2</v>
       </c>
-      <c r="W7" s="13"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="L8" s="13" t="s">
+      <c r="L8" t="s">
         <v>38</v>
       </c>
-      <c r="M8" s="13" t="s">
+      <c r="M8" t="s">
         <v>40</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8">
         <v>8.6776859504132234E-2</v>
       </c>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13">
+      <c r="P8">
         <v>7.7192982456140355E-2</v>
       </c>
-      <c r="Q8" s="13">
-        <v>0</v>
-      </c>
-      <c r="R8" s="13">
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>7.476635514018691E-2</v>
       </c>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13">
+      <c r="V8">
         <v>4.6728971962616821E-2</v>
       </c>
-      <c r="W8" s="13">
+      <c r="W8">
         <v>1.5290519877675841E-2</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="L9" s="13" t="s">
+      <c r="L9" t="s">
         <v>38</v>
       </c>
-      <c r="M9" s="13" t="s">
+      <c r="M9" t="s">
         <v>41</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9">
         <v>6.9644678061339407E-2</v>
       </c>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13">
+      <c r="P9">
         <v>6.2265500624231383E-2</v>
       </c>
-      <c r="Q9" s="13">
-        <v>0</v>
-      </c>
-      <c r="R9" s="13">
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>7.6125066776796493E-2</v>
       </c>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13">
+      <c r="V9">
         <v>2.0094753553603916E-2</v>
       </c>
-      <c r="W9" s="13">
+      <c r="W9">
         <v>1.6108447287490103E-2</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="L10" s="13" t="s">
+      <c r="L10" t="s">
         <v>39</v>
       </c>
-      <c r="M10" s="13" t="s">
+      <c r="M10" t="s">
         <v>40</v>
       </c>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13">
+      <c r="O10">
         <v>0.21428571428571427</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P10">
         <v>0.30278884462151395</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10">
         <v>0.22994652406417113</v>
       </c>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13">
+      <c r="S10">
         <v>0.18518518518518517</v>
       </c>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13">
+      <c r="W10">
         <v>0.14497041420118342</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="L11" s="13" t="s">
+      <c r="L11" t="s">
         <v>39</v>
       </c>
-      <c r="M11" s="13" t="s">
+      <c r="M11" t="s">
         <v>41</v>
       </c>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13">
+      <c r="O11">
         <v>0.11470636205519538</v>
       </c>
-      <c r="P11" s="13">
+      <c r="P11">
         <v>0.18943080608324731</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="Q11">
         <v>0.43033933999286561</v>
       </c>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13">
+      <c r="S11">
         <v>8.2817332499992208E-2</v>
       </c>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13">
+      <c r="W11">
+        <v>8.5103909914782214E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3E0338-8A49-4B11-8843-5D1F80D15A9F}">
+  <dimension ref="A1:W11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>SUM(REN!D7:H7)+SUM(USI!E7:I7)+SUM(TXO!D7:I7)+SUM(UEW!D7:I7)+SUM(IOU!D7:H7)</f>
+        <v>610173</v>
+      </c>
+      <c r="B2">
+        <f>SUM(REN!K7:O7)+SUM(USI!L7:Q7)+SUM(TXO!L7:Q7)+SUM(UEW!L7:Q7)+SUM(IOU!K7:O7)</f>
+        <v>6953</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="11">
+        <v>0.75990000000000002</v>
+      </c>
+      <c r="G2" s="11">
+        <v>9.2700000000000005E-2</v>
+      </c>
+      <c r="H2" s="11">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="12">
+        <f>REN!R22</f>
+        <v>5.1488647505070068E-2</v>
+      </c>
+      <c r="Q2" s="12">
+        <f>REN!S22</f>
+        <v>0.38579399293735162</v>
+      </c>
+      <c r="R2" s="12">
+        <f>REN!T22</f>
+        <v>4.0073421561396677E-2</v>
+      </c>
+      <c r="T2" s="12">
+        <f>REN!U22</f>
+        <v>2.2421943563050918E-2</v>
+      </c>
+      <c r="V2" s="12">
+        <f>REN!V22</f>
+        <v>0.17434322095028068</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0.41439999999999999</v>
+      </c>
+      <c r="G3" s="11">
+        <v>5.6500000000000002E-2</v>
+      </c>
+      <c r="H3" s="11">
+        <v>2.4299999999999999E-2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3">
+        <v>2.9801736688458633E-2</v>
+      </c>
+      <c r="Q3">
+        <v>0.22929014537213871</v>
+      </c>
+      <c r="R3">
+        <v>2.3672973677235559E-2</v>
+      </c>
+      <c r="T3">
+        <v>1.3494301831737549E-2</v>
+      </c>
+      <c r="V3">
+        <v>6.0904954444811997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0.57150000000000001</v>
+      </c>
+      <c r="G4" s="11">
+        <v>5.4100000000000002E-2</v>
+      </c>
+      <c r="H4" s="11">
+        <v>5.0299999999999997E-2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="12">
+        <f>USI!T23</f>
+        <v>3.8417216405411E-2</v>
+      </c>
+      <c r="P4" s="12">
+        <f>USI!U23</f>
+        <v>5.6651127519358906E-2</v>
+      </c>
+      <c r="Q4" s="12">
+        <f>USI!V23</f>
+        <v>0.83356807511737097</v>
+      </c>
+      <c r="R4" s="12">
+        <f>USI!W23</f>
+        <v>0.22391531440578338</v>
+      </c>
+      <c r="V4" s="12">
+        <f>USI!X23</f>
+        <v>2.5227210721958871E-2</v>
+      </c>
+      <c r="W4" s="12">
+        <f>USI!Y23</f>
+        <v>5.3186538673588038E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="G5" s="11">
+        <v>7.4099999999999999E-2</v>
+      </c>
+      <c r="H5" s="11">
+        <v>4.7E-2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5">
+        <v>3.7570609571957035E-2</v>
+      </c>
+      <c r="P5">
+        <v>4.3445024071984917E-2</v>
+      </c>
+      <c r="Q5">
+        <v>0.54772255750516607</v>
+      </c>
+      <c r="R5">
+        <v>0.12103391690894966</v>
+      </c>
+      <c r="V5">
+        <v>1.5971914124998498E-2</v>
+      </c>
+      <c r="W5">
+        <v>2.2473585881759354E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0.7167</v>
+      </c>
+      <c r="G6" s="11">
+        <v>5.1700000000000003E-2</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0.1085</v>
+      </c>
+      <c r="L6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="12">
+        <f>TXO!T22</f>
+        <v>3.4963266429995921E-2</v>
+      </c>
+      <c r="R6" s="12">
+        <f>TXO!U22</f>
+        <v>0.1412761193069054</v>
+      </c>
+      <c r="S6" s="12">
+        <f>TXO!V22</f>
+        <v>8.1298528027684031E-2</v>
+      </c>
+      <c r="T6" s="12">
+        <f>TXO!W22</f>
+        <v>1.9570510864524542E-2</v>
+      </c>
+      <c r="U6" s="12">
+        <f>TXO!X22</f>
+        <v>2.6328382019899017E-2</v>
+      </c>
+      <c r="V6" s="12">
+        <f>TXO!Y22</f>
+        <v>2.1405822858858121E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="H7" s="12">
+        <v>8.6099999999999996E-2</v>
+      </c>
+      <c r="L7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7">
+        <v>2.3585260633387509E-2</v>
+      </c>
+      <c r="R7">
+        <v>0.29049651597521409</v>
+      </c>
+      <c r="S7">
+        <v>0.11091809013453259</v>
+      </c>
+      <c r="T7">
+        <v>1.5291488234786208E-2</v>
+      </c>
+      <c r="U7">
+        <v>7.6150134145767281E-2</v>
+      </c>
+      <c r="V7">
+        <v>2.008460800397098E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="12">
+        <f>UEW!T22</f>
+        <v>5.8577547733890775E-2</v>
+      </c>
+      <c r="P8" s="12">
+        <f>UEW!U22</f>
+        <v>8.4883948825272879E-2</v>
+      </c>
+      <c r="Q8" s="12">
+        <f>UEW!V22</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="12">
+        <f>UEW!W22</f>
+        <v>2.1141997165428812E-2</v>
+      </c>
+      <c r="V8" s="12">
+        <f>UEW!X22</f>
+        <v>4.8008318491198632E-2</v>
+      </c>
+      <c r="W8" s="12">
+        <f>UEW!Y22</f>
+        <v>3.9256874431630425E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9">
+        <v>6.9644678061339407E-2</v>
+      </c>
+      <c r="P9">
+        <v>6.2265500624231383E-2</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>7.6125066776796493E-2</v>
+      </c>
+      <c r="V9">
+        <v>2.0094753553603916E-2</v>
+      </c>
+      <c r="W9">
+        <v>1.6108447287490103E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O10" s="12">
+        <f>IOU!R22</f>
+        <v>9.0181168216086002E-2</v>
+      </c>
+      <c r="P10" s="12">
+        <f>IOU!S22</f>
+        <v>8.8704217820210901E-2</v>
+      </c>
+      <c r="Q10" s="12">
+        <f>IOU!T22</f>
+        <v>9.2242131755629717E-2</v>
+      </c>
+      <c r="S10" s="12">
+        <f>IOU!U22</f>
+        <v>2.355669905602268E-2</v>
+      </c>
+      <c r="W10" s="12">
+        <f>IOU!V22</f>
+        <v>6.5142006535924432E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11">
+        <v>0.11470636205519538</v>
+      </c>
+      <c r="P11">
+        <v>0.18943080608324731</v>
+      </c>
+      <c r="Q11">
+        <v>0.43033933999286561</v>
+      </c>
+      <c r="S11">
+        <v>8.2817332499992208E-2</v>
+      </c>
+      <c r="W11">
         <v>8.5103909914782214E-2</v>
       </c>
     </row>
